--- a/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/CRS_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E25E70-7B2A-451A-8F03-F92C22DF85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037AA048-81EC-4933-81D5-B52EE086C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,33 +37,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CRS-001</t>
-  </si>
-  <si>
-    <t>CRS-002</t>
-  </si>
-  <si>
-    <t>CRS-003</t>
-  </si>
-  <si>
-    <t>CRS-004</t>
-  </si>
-  <si>
-    <t>CRS-005</t>
-  </si>
-  <si>
-    <t>CRS-006</t>
-  </si>
-  <si>
-    <t>CRS-007</t>
-  </si>
-  <si>
-    <t>CRS-008</t>
-  </si>
-  <si>
-    <t>CRS-009</t>
-  </si>
-  <si>
     <t>Registration Form Requirements</t>
   </si>
   <si>
@@ -146,6 +119,33 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>CRS-Reg-001</t>
+  </si>
+  <si>
+    <t>CRS-Reg-002</t>
+  </si>
+  <si>
+    <t>CRS-Reg-003</t>
+  </si>
+  <si>
+    <t>CRS-Login-004</t>
+  </si>
+  <si>
+    <t>CRS-Admin-005</t>
+  </si>
+  <si>
+    <t>CRS-Rate-006</t>
+  </si>
+  <si>
+    <t>CRS-Booking-007</t>
+  </si>
+  <si>
+    <t>CRS-Gallery-008</t>
+  </si>
+  <si>
+    <t>CRS-User-009</t>
   </si>
 </sst>
 </file>
@@ -522,12 +522,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="125.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -552,155 +552,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/CRS_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037AA048-81EC-4933-81D5-B52EE086C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265CA5-AD52-452C-8A79-FBDAB648193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>CRS ID</t>
   </si>
@@ -130,22 +130,43 @@
     <t>CRS-Reg-003</t>
   </si>
   <si>
-    <t>CRS-Login-004</t>
-  </si>
-  <si>
-    <t>CRS-Admin-005</t>
-  </si>
-  <si>
-    <t>CRS-Rate-006</t>
-  </si>
-  <si>
-    <t>CRS-Booking-007</t>
-  </si>
-  <si>
-    <t>CRS-Gallery-008</t>
-  </si>
-  <si>
-    <t>CRS-User-009</t>
+    <t>CRS-Login-001</t>
+  </si>
+  <si>
+    <t>CRS-Admin-001</t>
+  </si>
+  <si>
+    <t>CRS-Rate-001</t>
+  </si>
+  <si>
+    <t>CRS-Booking-001</t>
+  </si>
+  <si>
+    <t>CRS-Gallery-001</t>
+  </si>
+  <si>
+    <t>CRS-User-001</t>
+  </si>
+  <si>
+    <t>The application must be accessible via PC or Web Browser only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Platform Type</t>
+  </si>
+  <si>
+    <t>Unique User IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Each registered user must be assigned a unique identifier for system tracking.</t>
+  </si>
+  <si>
+    <t>CRS-Platform-001</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>CRS-User-002</t>
   </si>
 </sst>
 </file>
@@ -183,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,13 +227,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -519,21 +554,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="125.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +585,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -567,7 +606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -584,7 +623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -601,7 +640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -618,7 +657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -635,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -652,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -669,7 +708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -686,7 +725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -700,6 +739,34 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
